--- a/output/out_excel/data_RMSE.xlsx
+++ b/output/out_excel/data_RMSE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,202 +462,342 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.04527178202252173</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>0.03311091441862701</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>0.02412426114932237</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>0.02137375169641063</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>0.02100583460420365</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.04246525534438269</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>0.0343462703342137</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>0.02395386269818236</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>0.02171938829369012</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>0.0220492646929907</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.03527624993380123</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>0.03452870448231612</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>0.02538013323182355</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>0.02365076985252619</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>0.02254215046373346</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.03628140334439284</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>0.03861813242858685</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>0.02810996607962572</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>0.03289000416848085</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>0.02677903435878893</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.04838435691853619</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>0.0414577360636669</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>0.03006533851878159</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>0.02979412153214583</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>0.03230524170239784</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.0408734509918361</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>0.03917855427976583</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>0.02566606831870905</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>0.02670049482893609</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0.02652373516124784</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0.04141369542525349</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>0.03763681383791977</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>0.02442023221692077</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>0.02300745417649345</v>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>0.02303270122949976</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0.03921226380050255</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>0.03615724189122643</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>0.02335579233379655</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>0.01759424233387253</v>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>0.02127318994439192</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0.05104721998667353</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>0.03908906232288528</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>0.02326847485073672</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>0.01650011360441443</v>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>0.02123035668267537</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.05078005660174388</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.04056567615338928</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.02424689191182619</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.01696798435425987</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.02195952167469577</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+      <c r="B12" t="n">
+        <v>0.05838916660991127</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.04250814906315012</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.02487039398888805</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.01640294958861968</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.02269027768032842</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.06161672412618773</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.04419238637256724</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.02555880193393467</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.01689999110698637</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.02356203310009027</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.06500576786994858</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.04499598035014851</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.02702073828528782</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.01765264993222207</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.024038180761976</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.06462749911032405</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.04567464750273539</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0273697009844431</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.01782696007887658</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.02457484806184281</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.06580717607478974</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.04600504124397942</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.02766688888957937</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0179900362002107</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.02472277818668135</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.06563525458501998</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.04615841930134062</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.02790696199399608</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.01832348577465704</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.02482874572844791</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.06591482605383395</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.04626987162472224</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.02807559733470788</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.01829843564836816</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.02493795154109934</v>
       </c>
     </row>
   </sheetData>

--- a/output/out_excel/data_RMSE.xlsx
+++ b/output/out_excel/data_RMSE.xlsx
@@ -465,19 +465,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04527178202252173</v>
+        <v>0.06045809657875509</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03311091441862701</v>
+        <v>0.04715535591891339</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02412426114932237</v>
+        <v>0.02048158440005299</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02137375169641063</v>
+        <v>0.01686187421884393</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02100583460420365</v>
+        <v>0.03134567345318518</v>
       </c>
     </row>
     <row r="3">
@@ -485,19 +485,19 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>0.04246525534438269</v>
+        <v>0.05401023734024143</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0343462703342137</v>
+        <v>0.04664377912446473</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02395386269818236</v>
+        <v>0.02187586734642404</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02171938829369012</v>
+        <v>0.01715629985382717</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0220492646929907</v>
+        <v>0.02956491716692805</v>
       </c>
     </row>
     <row r="4">
@@ -505,19 +505,19 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03527624993380123</v>
+        <v>0.0470616199553073</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03452870448231612</v>
+        <v>0.04567511983984629</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02538013323182355</v>
+        <v>0.02333571294534873</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02365076985252619</v>
+        <v>0.02089269369606267</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02254215046373346</v>
+        <v>0.03038370708262419</v>
       </c>
     </row>
     <row r="5">
@@ -525,19 +525,19 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03628140334439284</v>
+        <v>0.07308407875674522</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03861813242858685</v>
+        <v>0.0505855742851702</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02810996607962572</v>
+        <v>0.02866222179820695</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03289000416848085</v>
+        <v>0.03114140303348209</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02677903435878893</v>
+        <v>0.04009766902101392</v>
       </c>
     </row>
     <row r="6">
@@ -545,19 +545,19 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04838435691853619</v>
+        <v>0.07082668202974202</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0414577360636669</v>
+        <v>0.07054062889036722</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03006533851878159</v>
+        <v>0.03237154201126941</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02979412153214583</v>
+        <v>0.03370693571387755</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03230524170239784</v>
+        <v>0.04606262693942028</v>
       </c>
     </row>
     <row r="7">
@@ -565,19 +565,19 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0408734509918361</v>
+        <v>0.06169330846661639</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03917855427976583</v>
+        <v>0.08360431731307907</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02566606831870905</v>
+        <v>0.03022029982838398</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02670049482893609</v>
+        <v>0.02707951426573501</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02652373516124784</v>
+        <v>0.04999358501087372</v>
       </c>
     </row>
     <row r="8">
@@ -585,19 +585,19 @@
         <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>0.04141369542525349</v>
+        <v>0.06629066368454885</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03763681383791977</v>
+        <v>0.06135416057263635</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02442023221692077</v>
+        <v>0.02368861187480092</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02300745417649345</v>
+        <v>0.02170854605108558</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02303270122949976</v>
+        <v>0.03971103758967622</v>
       </c>
     </row>
     <row r="9">
@@ -605,19 +605,19 @@
         <v>40</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03921226380050255</v>
+        <v>0.05216648029813976</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03615724189122643</v>
+        <v>0.05136802932237945</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02335579233379655</v>
+        <v>0.02039295078470096</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01759424233387253</v>
+        <v>0.01638579118884057</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02127318994439192</v>
+        <v>0.02933722974991203</v>
       </c>
     </row>
     <row r="10">
@@ -625,19 +625,19 @@
         <v>45</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05104721998667353</v>
+        <v>0.06510615745948943</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03908906232288528</v>
+        <v>0.04680887516166399</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02326847485073672</v>
+        <v>0.02033912943808381</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01650011360441443</v>
+        <v>0.0134631626092732</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02123035668267537</v>
+        <v>0.03091019378675437</v>
       </c>
     </row>
     <row r="11">
@@ -645,19 +645,19 @@
         <v>50</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05078005660174388</v>
+        <v>0.07545211636098324</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04056567615338928</v>
+        <v>0.04703330337588309</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02424689191182619</v>
+        <v>0.0219230065764918</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01696798435425987</v>
+        <v>0.01073546748923419</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02195952167469577</v>
+        <v>0.02903007714123914</v>
       </c>
     </row>
     <row r="12">
@@ -665,19 +665,19 @@
         <v>55</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05838916660991127</v>
+        <v>0.07410596051833308</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04250814906315012</v>
+        <v>0.04608447413816349</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02487039398888805</v>
+        <v>0.02401308390205573</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01640294958861968</v>
+        <v>0.01208761325420784</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02269027768032842</v>
+        <v>0.03034085192087571</v>
       </c>
     </row>
     <row r="13">
@@ -685,19 +685,19 @@
         <v>60</v>
       </c>
       <c r="B13" t="n">
-        <v>0.06161672412618773</v>
+        <v>0.07702269859463579</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04419238637256724</v>
+        <v>0.04663826203447504</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02555880193393467</v>
+        <v>0.02473300078266149</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01689999110698637</v>
+        <v>0.01433096314591077</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02356203310009027</v>
+        <v>0.02993318911252935</v>
       </c>
     </row>
     <row r="14">
@@ -705,19 +705,19 @@
         <v>65</v>
       </c>
       <c r="B14" t="n">
-        <v>0.06500576786994858</v>
+        <v>0.07295338397274957</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04499598035014851</v>
+        <v>0.04715978001768463</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02702073828528782</v>
+        <v>0.02632171017002597</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01765264993222207</v>
+        <v>0.01507888315153952</v>
       </c>
       <c r="F14" t="n">
-        <v>0.024038180761976</v>
+        <v>0.03053072992730379</v>
       </c>
     </row>
     <row r="15">
@@ -725,19 +725,19 @@
         <v>70</v>
       </c>
       <c r="B15" t="n">
-        <v>0.06462749911032405</v>
+        <v>0.07584408747861211</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04567464750273539</v>
+        <v>0.04682685968381877</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0273697009844431</v>
+        <v>0.0259957302141631</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01782696007887658</v>
+        <v>0.01524926703987872</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02457484806184281</v>
+        <v>0.03050423236089556</v>
       </c>
     </row>
     <row r="16">
@@ -745,19 +745,19 @@
         <v>75</v>
       </c>
       <c r="B16" t="n">
-        <v>0.06580717607478974</v>
+        <v>0.07627834004907812</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04600504124397942</v>
+        <v>0.04690048807944901</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02766688888957937</v>
+        <v>0.02625434332536366</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0179900362002107</v>
+        <v>0.01568058590965807</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02472277818668135</v>
+        <v>0.03075172629138184</v>
       </c>
     </row>
     <row r="17">
@@ -765,19 +765,19 @@
         <v>80</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06563525458501998</v>
+        <v>0.0757725526778312</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04615841930134062</v>
+        <v>0.04680293220379636</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02790696199399608</v>
+        <v>0.02649785703272504</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01832348577465704</v>
+        <v>0.01591807867429529</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02482874572844791</v>
+        <v>0.0309157460626473</v>
       </c>
     </row>
     <row r="18">
@@ -785,19 +785,19 @@
         <v>85</v>
       </c>
       <c r="B18" t="n">
-        <v>0.06591482605383395</v>
+        <v>0.07579929206477883</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04626987162472224</v>
+        <v>0.04695387455426898</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02807559733470788</v>
+        <v>0.0265071244776255</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01829843564836816</v>
+        <v>0.01602796623784324</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02493795154109934</v>
+        <v>0.03091670582609169</v>
       </c>
     </row>
   </sheetData>
